--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Gpc3-Igf1r.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Gpc3-Igf1r.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>2.536023666666666</v>
+        <v>0.301437</v>
       </c>
       <c r="H2">
-        <v>7.608070999999999</v>
+        <v>0.9043110000000001</v>
       </c>
       <c r="I2">
-        <v>0.02556389501525096</v>
+        <v>0.003123224212368042</v>
       </c>
       <c r="J2">
-        <v>0.02556389501525096</v>
+        <v>0.003123224212368043</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>29.57110033333333</v>
+        <v>9.084137666666667</v>
       </c>
       <c r="N2">
-        <v>88.713301</v>
+        <v>27.252413</v>
       </c>
       <c r="O2">
-        <v>0.5311523066901919</v>
+        <v>0.2765376761551382</v>
       </c>
       <c r="P2">
-        <v>0.5311523066901919</v>
+        <v>0.2765376761551382</v>
       </c>
       <c r="Q2">
-        <v>74.99301029470789</v>
+        <v>2.738295205827</v>
       </c>
       <c r="R2">
-        <v>674.9370926523709</v>
+        <v>24.644656852443</v>
       </c>
       <c r="S2">
-        <v>0.01357832180533644</v>
+        <v>0.0008636891657997203</v>
       </c>
       <c r="T2">
-        <v>0.01357832180533645</v>
+        <v>0.0008636891657997204</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>2.536023666666666</v>
+        <v>0.301437</v>
       </c>
       <c r="H3">
-        <v>7.608070999999999</v>
+        <v>0.9043110000000001</v>
       </c>
       <c r="I3">
-        <v>0.02556389501525096</v>
+        <v>0.003123224212368042</v>
       </c>
       <c r="J3">
-        <v>0.02556389501525096</v>
+        <v>0.003123224212368043</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>36.541011</v>
       </c>
       <c r="O3">
-        <v>0.2187816490048282</v>
+        <v>0.3707916163717078</v>
       </c>
       <c r="P3">
-        <v>0.2187816490048282</v>
+        <v>0.3707916163717078</v>
       </c>
       <c r="Q3">
-        <v>30.88962289997567</v>
+        <v>3.671604244269</v>
       </c>
       <c r="R3">
-        <v>278.006606099781</v>
+        <v>33.04443819842101</v>
       </c>
       <c r="S3">
-        <v>0.005592911106422913</v>
+        <v>0.001158065353995201</v>
       </c>
       <c r="T3">
-        <v>0.005592911106422914</v>
+        <v>0.001158065353995201</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>2.536023666666666</v>
+        <v>0.301437</v>
       </c>
       <c r="H4">
-        <v>7.608070999999999</v>
+        <v>0.9043110000000001</v>
       </c>
       <c r="I4">
-        <v>0.02556389501525096</v>
+        <v>0.003123224212368042</v>
       </c>
       <c r="J4">
-        <v>0.02556389501525096</v>
+        <v>0.003123224212368043</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>13.92204833333333</v>
+        <v>11.58507333333333</v>
       </c>
       <c r="N4">
-        <v>41.76614499999999</v>
+        <v>34.75522</v>
       </c>
       <c r="O4">
-        <v>0.2500660443049799</v>
+        <v>0.3526707074731541</v>
       </c>
       <c r="P4">
-        <v>0.2500660443049799</v>
+        <v>0.3526707074731541</v>
       </c>
       <c r="Q4">
-        <v>35.30664406181054</v>
+        <v>3.49216975038</v>
       </c>
       <c r="R4">
-        <v>317.7597965562949</v>
+        <v>31.42952775342</v>
       </c>
       <c r="S4">
-        <v>0.006392662103491602</v>
+        <v>0.001101469692573122</v>
       </c>
       <c r="T4">
-        <v>0.006392662103491603</v>
+        <v>0.001101469692573122</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>225.346153</v>
       </c>
       <c r="I5">
-        <v>0.7571860721834327</v>
+        <v>0.7782793322359159</v>
       </c>
       <c r="J5">
-        <v>0.7571860721834328</v>
+        <v>0.7782793322359159</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>29.57110033333333</v>
+        <v>9.084137666666667</v>
       </c>
       <c r="N5">
-        <v>88.713301</v>
+        <v>27.252413</v>
       </c>
       <c r="O5">
-        <v>0.5311523066901919</v>
+        <v>0.2765376761551382</v>
       </c>
       <c r="P5">
-        <v>0.5311523066901919</v>
+        <v>0.2765376761551382</v>
       </c>
       <c r="Q5">
-        <v>2221.244566697895</v>
+        <v>682.3584921685766</v>
       </c>
       <c r="R5">
-        <v>19991.20110028105</v>
+        <v>6141.22642951719</v>
       </c>
       <c r="S5">
-        <v>0.4021811288339164</v>
+        <v>0.2152235579360929</v>
       </c>
       <c r="T5">
-        <v>0.4021811288339164</v>
+        <v>0.2152235579360929</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>225.346153</v>
       </c>
       <c r="I6">
-        <v>0.7571860721834327</v>
+        <v>0.7782793322359159</v>
       </c>
       <c r="J6">
-        <v>0.7571860721834328</v>
+        <v>0.7782793322359159</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>36.541011</v>
       </c>
       <c r="O6">
-        <v>0.2187816490048282</v>
+        <v>0.3707916163717078</v>
       </c>
       <c r="P6">
-        <v>0.2187816490048282</v>
+        <v>0.3707916163717078</v>
       </c>
       <c r="Q6">
         <v>914.9306950645205</v>
@@ -818,10 +818,10 @@
         <v>8234.376255580684</v>
       </c>
       <c r="S6">
-        <v>0.1656584174757803</v>
+        <v>0.2885794515884487</v>
       </c>
       <c r="T6">
-        <v>0.1656584174757803</v>
+        <v>0.2885794515884487</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>225.346153</v>
       </c>
       <c r="I7">
-        <v>0.7571860721834327</v>
+        <v>0.7782793322359159</v>
       </c>
       <c r="J7">
-        <v>0.7571860721834328</v>
+        <v>0.7782793322359159</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>13.92204833333333</v>
+        <v>11.58507333333333</v>
       </c>
       <c r="N7">
-        <v>41.76614499999999</v>
+        <v>34.75522</v>
       </c>
       <c r="O7">
-        <v>0.2500660443049799</v>
+        <v>0.3526707074731541</v>
       </c>
       <c r="P7">
-        <v>0.2500660443049799</v>
+        <v>0.3526707074731541</v>
       </c>
       <c r="Q7">
-        <v>1045.760011265576</v>
+        <v>870.2172359631845</v>
       </c>
       <c r="R7">
-        <v>9411.840101390184</v>
+        <v>7831.955123668661</v>
       </c>
       <c r="S7">
-        <v>0.189346525873736</v>
+        <v>0.2744763227113744</v>
       </c>
       <c r="T7">
-        <v>0.189346525873736</v>
+        <v>0.2744763227113744</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,16 +906,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>21.551928</v>
+        <v>21.09786333333333</v>
       </c>
       <c r="H8">
-        <v>64.65578400000001</v>
+        <v>63.29359</v>
       </c>
       <c r="I8">
-        <v>0.2172500328013163</v>
+        <v>0.2185974435517159</v>
       </c>
       <c r="J8">
-        <v>0.2172500328013163</v>
+        <v>0.218597443551716</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>29.57110033333333</v>
+        <v>9.084137666666667</v>
       </c>
       <c r="N8">
-        <v>88.713301</v>
+        <v>27.252413</v>
       </c>
       <c r="O8">
-        <v>0.5311523066901919</v>
+        <v>0.2765376761551382</v>
       </c>
       <c r="P8">
-        <v>0.5311523066901919</v>
+        <v>0.2765376761551382</v>
       </c>
       <c r="Q8">
-        <v>637.3142252647762</v>
+        <v>191.6558949925189</v>
       </c>
       <c r="R8">
-        <v>5735.828027382985</v>
+        <v>1724.90305493267</v>
       </c>
       <c r="S8">
-        <v>0.115392856050939</v>
+        <v>0.06045042905324552</v>
       </c>
       <c r="T8">
-        <v>0.115392856050939</v>
+        <v>0.06045042905324553</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>21.551928</v>
+        <v>21.09786333333333</v>
       </c>
       <c r="H9">
-        <v>64.65578400000001</v>
+        <v>63.29359</v>
       </c>
       <c r="I9">
-        <v>0.2172500328013163</v>
+        <v>0.2185974435517159</v>
       </c>
       <c r="J9">
-        <v>0.2172500328013163</v>
+        <v>0.218597443551716</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>36.541011</v>
       </c>
       <c r="O9">
-        <v>0.2187816490048282</v>
+        <v>0.3707916163717078</v>
       </c>
       <c r="P9">
-        <v>0.2187816490048282</v>
+        <v>0.3707916163717078</v>
       </c>
       <c r="Q9">
-        <v>262.5097460397361</v>
+        <v>256.9790853799433</v>
       </c>
       <c r="R9">
-        <v>2362.587714357625</v>
+        <v>2312.81176841949</v>
       </c>
       <c r="S9">
-        <v>0.047530320422625</v>
+        <v>0.08105409942926391</v>
       </c>
       <c r="T9">
-        <v>0.04753032042262501</v>
+        <v>0.08105409942926392</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>21.551928</v>
+        <v>21.09786333333333</v>
       </c>
       <c r="H10">
-        <v>64.65578400000001</v>
+        <v>63.29359</v>
       </c>
       <c r="I10">
-        <v>0.2172500328013163</v>
+        <v>0.2185974435517159</v>
       </c>
       <c r="J10">
-        <v>0.2172500328013163</v>
+        <v>0.218597443551716</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>13.92204833333333</v>
+        <v>11.58507333333333</v>
       </c>
       <c r="N10">
-        <v>41.76614499999999</v>
+        <v>34.75522</v>
       </c>
       <c r="O10">
-        <v>0.2500660443049799</v>
+        <v>0.3526707074731541</v>
       </c>
       <c r="P10">
-        <v>0.2500660443049799</v>
+        <v>0.3526707074731541</v>
       </c>
       <c r="Q10">
-        <v>300.04698329252</v>
+        <v>244.4202938933111</v>
       </c>
       <c r="R10">
-        <v>2700.42284963268</v>
+        <v>2199.7826450398</v>
       </c>
       <c r="S10">
-        <v>0.0543268563277523</v>
+        <v>0.07709291506920653</v>
       </c>
       <c r="T10">
-        <v>0.05432685632775231</v>
+        <v>0.07709291506920653</v>
       </c>
     </row>
   </sheetData>
